--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isupovand/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08BEF6A-9CEA-D043-A802-7CB0F45C7AD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA6911E-50C1-9743-BAFF-2E5663535197}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="460" windowWidth="24940" windowHeight="14020" xr2:uid="{2FD343C4-0B31-A846-AE30-ED5A05964501}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="125">
   <si>
     <t>native_lang</t>
   </si>
@@ -402,6 +402,9 @@
   </si>
   <si>
     <t>Finnic</t>
+  </si>
+  <si>
+    <t>level_numeric</t>
   </si>
 </sst>
 </file>
@@ -756,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBC3B7F-977A-DB4F-B077-D01132DC4E55}">
-  <dimension ref="A1:AC69"/>
+  <dimension ref="A1:AD69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X54" zoomScale="117" workbookViewId="0">
-      <selection activeCell="AC64" sqref="AC64"/>
+    <sheetView tabSelected="1" topLeftCell="U51" zoomScale="117" workbookViewId="0">
+      <selection activeCell="X71" sqref="X71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -784,16 +787,16 @@
     <col min="20" max="20" width="26.6640625" customWidth="1"/>
     <col min="21" max="21" width="25" customWidth="1"/>
     <col min="22" max="22" width="24.6640625" customWidth="1"/>
-    <col min="23" max="23" width="22" customWidth="1"/>
-    <col min="24" max="24" width="23.6640625" customWidth="1"/>
-    <col min="25" max="25" width="24.1640625" customWidth="1"/>
-    <col min="26" max="26" width="22.83203125" customWidth="1"/>
-    <col min="27" max="27" width="20.33203125" customWidth="1"/>
-    <col min="28" max="28" width="30.6640625" customWidth="1"/>
-    <col min="29" max="29" width="28.1640625" customWidth="1"/>
+    <col min="23" max="24" width="22" customWidth="1"/>
+    <col min="25" max="25" width="23.6640625" customWidth="1"/>
+    <col min="26" max="26" width="24.1640625" customWidth="1"/>
+    <col min="27" max="27" width="22.83203125" customWidth="1"/>
+    <col min="28" max="28" width="20.33203125" customWidth="1"/>
+    <col min="29" max="29" width="30.6640625" customWidth="1"/>
+    <col min="30" max="30" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -864,25 +867,28 @@
         <v>20</v>
       </c>
       <c r="X1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>120</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -952,23 +958,26 @@
       <c r="W2">
         <v>1</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2" t="s">
         <v>111</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" t="s">
-        <v>34</v>
-      </c>
       <c r="AA2" t="s">
         <v>34</v>
       </c>
       <c r="AB2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1038,23 +1047,26 @@
       <c r="W3">
         <v>1</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3" t="s">
         <v>113</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" t="s">
-        <v>34</v>
-      </c>
       <c r="AA3" t="s">
         <v>34</v>
       </c>
       <c r="AB3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1124,20 +1136,23 @@
       <c r="W4">
         <v>2</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4" t="s">
         <v>113</v>
       </c>
-      <c r="Y4" t="s">
-        <v>34</v>
-      </c>
       <c r="Z4" t="s">
         <v>34</v>
       </c>
       <c r="AA4" t="s">
         <v>34</v>
       </c>
+      <c r="AB4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1207,20 +1222,23 @@
       <c r="W5">
         <v>1</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X5">
+        <v>2</v>
+      </c>
+      <c r="Y5" t="s">
         <v>111</v>
       </c>
-      <c r="Y5" t="s">
-        <v>34</v>
-      </c>
       <c r="Z5" t="s">
         <v>34</v>
       </c>
       <c r="AA5" t="s">
         <v>34</v>
       </c>
+      <c r="AB5" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1290,20 +1308,23 @@
       <c r="W6">
         <v>2</v>
       </c>
-      <c r="X6" t="s">
+      <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Y6" t="s">
         <v>110</v>
       </c>
-      <c r="Y6" t="s">
-        <v>34</v>
-      </c>
       <c r="Z6" t="s">
         <v>34</v>
       </c>
       <c r="AA6" t="s">
         <v>34</v>
       </c>
+      <c r="AB6" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1373,23 +1394,26 @@
       <c r="W7">
         <v>3</v>
       </c>
-      <c r="X7" t="s">
+      <c r="X7">
+        <v>4</v>
+      </c>
+      <c r="Y7" t="s">
         <v>110</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>30</v>
       </c>
-      <c r="Z7" t="s">
-        <v>34</v>
-      </c>
       <c r="AA7" t="s">
         <v>34</v>
       </c>
       <c r="AB7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1459,26 +1483,29 @@
       <c r="W8">
         <v>0</v>
       </c>
-      <c r="X8" t="s">
+      <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Y8" t="s">
         <v>113</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>30</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>44</v>
       </c>
-      <c r="AA8" t="s">
-        <v>34</v>
-      </c>
       <c r="AB8" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1545,23 +1572,26 @@
       <c r="W9">
         <v>3</v>
       </c>
-      <c r="X9" t="s">
+      <c r="X9">
+        <v>4</v>
+      </c>
+      <c r="Y9" t="s">
         <v>110</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>30</v>
       </c>
-      <c r="Z9" t="s">
-        <v>34</v>
-      </c>
       <c r="AA9" t="s">
         <v>34</v>
       </c>
       <c r="AB9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1631,26 +1661,29 @@
       <c r="W10">
         <v>1</v>
       </c>
-      <c r="X10" t="s">
+      <c r="X10">
+        <v>3</v>
+      </c>
+      <c r="Y10" t="s">
         <v>113</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>30</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>44</v>
       </c>
-      <c r="AA10" t="s">
-        <v>34</v>
-      </c>
       <c r="AB10" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1720,26 +1753,29 @@
       <c r="W11">
         <v>1</v>
       </c>
-      <c r="X11" t="s">
+      <c r="X11">
+        <v>3</v>
+      </c>
+      <c r="Y11" t="s">
         <v>113</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>30</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>50</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>44</v>
       </c>
-      <c r="AB11" t="s">
-        <v>95</v>
-      </c>
       <c r="AC11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1809,26 +1845,29 @@
       <c r="W12">
         <v>2</v>
       </c>
-      <c r="X12" t="s">
+      <c r="X12">
+        <v>4</v>
+      </c>
+      <c r="Y12" t="s">
         <v>110</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>30</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>50</v>
       </c>
-      <c r="AA12" t="s">
-        <v>34</v>
-      </c>
       <c r="AB12" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AC12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1898,26 +1937,29 @@
       <c r="W13">
         <v>1</v>
       </c>
-      <c r="X13" t="s">
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Y13" t="s">
         <v>111</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>30</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>51</v>
       </c>
-      <c r="AA13" t="s">
-        <v>34</v>
-      </c>
       <c r="AB13" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1987,26 +2029,29 @@
       <c r="W14">
         <v>0</v>
       </c>
-      <c r="X14" t="s">
+      <c r="X14">
+        <v>2</v>
+      </c>
+      <c r="Y14" t="s">
         <v>111</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>30</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>44</v>
       </c>
-      <c r="AA14" t="s">
-        <v>34</v>
-      </c>
       <c r="AB14" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -2073,23 +2118,26 @@
       <c r="W15">
         <v>1</v>
       </c>
-      <c r="X15" t="s">
+      <c r="X15">
+        <v>3</v>
+      </c>
+      <c r="Y15" t="s">
         <v>113</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>30</v>
       </c>
-      <c r="Z15" t="s">
-        <v>34</v>
-      </c>
       <c r="AA15" t="s">
         <v>34</v>
       </c>
       <c r="AB15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2159,23 +2207,26 @@
       <c r="W16">
         <v>1</v>
       </c>
-      <c r="X16" t="s">
+      <c r="X16">
+        <v>3</v>
+      </c>
+      <c r="Y16" t="s">
         <v>113</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>30</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>31</v>
       </c>
-      <c r="AA16" t="s">
-        <v>34</v>
-      </c>
       <c r="AB16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -2245,23 +2296,26 @@
       <c r="W17">
         <v>1</v>
       </c>
-      <c r="X17" t="s">
+      <c r="X17">
+        <v>3</v>
+      </c>
+      <c r="Y17" t="s">
         <v>113</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>30</v>
       </c>
-      <c r="Z17" t="s">
-        <v>34</v>
-      </c>
       <c r="AA17" t="s">
         <v>34</v>
       </c>
       <c r="AB17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -2331,23 +2385,26 @@
       <c r="W18">
         <v>0</v>
       </c>
-      <c r="X18" t="s">
+      <c r="X18">
+        <v>2</v>
+      </c>
+      <c r="Y18" t="s">
         <v>111</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>30</v>
       </c>
-      <c r="Z18" t="s">
-        <v>34</v>
-      </c>
       <c r="AA18" t="s">
         <v>34</v>
       </c>
       <c r="AB18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -2417,23 +2474,26 @@
       <c r="W19">
         <v>2</v>
       </c>
-      <c r="X19" t="s">
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="s">
         <v>114</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>30</v>
       </c>
-      <c r="Z19" t="s">
-        <v>34</v>
-      </c>
       <c r="AA19" t="s">
         <v>34</v>
       </c>
       <c r="AB19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -2503,23 +2563,26 @@
       <c r="W20">
         <v>1</v>
       </c>
-      <c r="X20" t="s">
+      <c r="X20">
+        <v>3</v>
+      </c>
+      <c r="Y20" t="s">
         <v>113</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>30</v>
       </c>
-      <c r="Z20" t="s">
-        <v>34</v>
-      </c>
       <c r="AA20" t="s">
         <v>34</v>
       </c>
       <c r="AB20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -2589,23 +2652,26 @@
       <c r="W21">
         <v>2</v>
       </c>
-      <c r="X21" t="s">
+      <c r="X21">
+        <v>2</v>
+      </c>
+      <c r="Y21" t="s">
         <v>111</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>30</v>
       </c>
-      <c r="Z21" t="s">
-        <v>34</v>
-      </c>
       <c r="AA21" t="s">
         <v>34</v>
       </c>
       <c r="AB21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC21" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2672,23 +2738,26 @@
       <c r="W22">
         <v>3</v>
       </c>
-      <c r="X22" t="s">
+      <c r="X22">
+        <v>4</v>
+      </c>
+      <c r="Y22" t="s">
         <v>110</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>30</v>
       </c>
-      <c r="Z22" t="s">
-        <v>34</v>
-      </c>
       <c r="AA22" t="s">
         <v>34</v>
       </c>
       <c r="AB22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2758,26 +2827,29 @@
       <c r="W23">
         <v>2</v>
       </c>
-      <c r="X23" t="s">
+      <c r="X23">
+        <v>4</v>
+      </c>
+      <c r="Y23" t="s">
         <v>110</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>58</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>50</v>
       </c>
-      <c r="AA23" t="s">
-        <v>34</v>
-      </c>
       <c r="AB23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC23" t="s">
         <v>122</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -2847,26 +2919,29 @@
       <c r="W24">
         <v>3</v>
       </c>
-      <c r="X24" t="s">
+      <c r="X24">
+        <v>4</v>
+      </c>
+      <c r="Y24" t="s">
         <v>110</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>30</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>47</v>
       </c>
-      <c r="AA24" t="s">
-        <v>34</v>
-      </c>
       <c r="AB24" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AC24" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD24" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -2936,26 +3011,29 @@
       <c r="W25">
         <v>1</v>
       </c>
-      <c r="X25" t="s">
+      <c r="X25">
+        <v>3</v>
+      </c>
+      <c r="Y25" t="s">
         <v>113</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>30</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>50</v>
       </c>
-      <c r="AA25" t="s">
-        <v>34</v>
-      </c>
       <c r="AB25" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AC25" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -3025,23 +3103,26 @@
       <c r="W26">
         <v>1</v>
       </c>
-      <c r="X26" t="s">
+      <c r="X26">
+        <v>3</v>
+      </c>
+      <c r="Y26" t="s">
         <v>113</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>50</v>
       </c>
-      <c r="Z26" t="s">
-        <v>34</v>
-      </c>
       <c r="AA26" t="s">
         <v>34</v>
       </c>
       <c r="AB26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC26" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -3111,23 +3192,26 @@
       <c r="W27">
         <v>3</v>
       </c>
-      <c r="X27" t="s">
+      <c r="X27">
+        <v>4</v>
+      </c>
+      <c r="Y27" t="s">
         <v>110</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>30</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>31</v>
       </c>
-      <c r="AA27" t="s">
-        <v>34</v>
-      </c>
       <c r="AB27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -3197,23 +3281,26 @@
       <c r="W28">
         <v>3</v>
       </c>
-      <c r="X28" t="s">
+      <c r="X28">
+        <v>4</v>
+      </c>
+      <c r="Y28" t="s">
         <v>110</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>30</v>
       </c>
-      <c r="Z28" t="s">
-        <v>34</v>
-      </c>
       <c r="AA28" t="s">
         <v>34</v>
       </c>
       <c r="AB28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC28" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -3283,23 +3370,26 @@
       <c r="W29">
         <v>2</v>
       </c>
-      <c r="X29" t="s">
+      <c r="X29">
+        <v>4</v>
+      </c>
+      <c r="Y29" t="s">
         <v>110</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>30</v>
       </c>
-      <c r="Z29" t="s">
-        <v>34</v>
-      </c>
       <c r="AA29" t="s">
         <v>34</v>
       </c>
       <c r="AB29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -3366,23 +3456,26 @@
       <c r="W30">
         <v>0</v>
       </c>
-      <c r="X30" t="s">
+      <c r="X30">
+        <v>2</v>
+      </c>
+      <c r="Y30" t="s">
         <v>111</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>30</v>
       </c>
-      <c r="Z30" t="s">
-        <v>34</v>
-      </c>
       <c r="AA30" t="s">
         <v>34</v>
       </c>
       <c r="AB30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -3452,23 +3545,26 @@
       <c r="W31">
         <v>3</v>
       </c>
-      <c r="X31" t="s">
+      <c r="X31">
+        <v>4</v>
+      </c>
+      <c r="Y31" t="s">
         <v>110</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>30</v>
       </c>
-      <c r="Z31" t="s">
-        <v>34</v>
-      </c>
       <c r="AA31" t="s">
         <v>34</v>
       </c>
       <c r="AB31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC31" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3538,20 +3634,23 @@
       <c r="W32">
         <v>2</v>
       </c>
-      <c r="X32" t="s">
+      <c r="X32">
+        <v>4</v>
+      </c>
+      <c r="Y32" t="s">
         <v>110</v>
       </c>
-      <c r="Y32" t="s">
-        <v>34</v>
-      </c>
       <c r="Z32" t="s">
         <v>34</v>
       </c>
       <c r="AA32" t="s">
         <v>34</v>
       </c>
+      <c r="AB32" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -3621,23 +3720,26 @@
       <c r="W33">
         <v>2</v>
       </c>
-      <c r="X33" t="s">
+      <c r="X33">
+        <v>4</v>
+      </c>
+      <c r="Y33" t="s">
         <v>110</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>30</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>31</v>
       </c>
-      <c r="AA33" t="s">
-        <v>34</v>
-      </c>
       <c r="AB33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC33" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -3707,26 +3809,29 @@
       <c r="W34">
         <v>3</v>
       </c>
-      <c r="X34" t="s">
+      <c r="X34">
+        <v>4</v>
+      </c>
+      <c r="Y34" t="s">
         <v>110</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>30</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>31</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AB34" t="s">
         <v>68</v>
       </c>
-      <c r="AB34" t="s">
-        <v>95</v>
-      </c>
       <c r="AC34" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD34" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -3796,23 +3901,26 @@
       <c r="W35">
         <v>1</v>
       </c>
-      <c r="X35" t="s">
+      <c r="X35">
+        <v>3</v>
+      </c>
+      <c r="Y35" t="s">
         <v>113</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>30</v>
       </c>
-      <c r="Z35" t="s">
-        <v>34</v>
-      </c>
       <c r="AA35" t="s">
         <v>34</v>
       </c>
       <c r="AB35" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC35" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -3882,23 +3990,26 @@
       <c r="W36">
         <v>3</v>
       </c>
-      <c r="X36" t="s">
+      <c r="X36">
+        <v>4</v>
+      </c>
+      <c r="Y36" t="s">
         <v>110</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>30</v>
       </c>
-      <c r="Z36" t="s">
-        <v>34</v>
-      </c>
       <c r="AA36" t="s">
         <v>34</v>
       </c>
       <c r="AB36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC36" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -3968,26 +4079,29 @@
       <c r="W37">
         <v>1</v>
       </c>
-      <c r="X37" t="s">
+      <c r="X37">
+        <v>3</v>
+      </c>
+      <c r="Y37" t="s">
         <v>113</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>30</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>42</v>
       </c>
-      <c r="AA37" t="s">
-        <v>34</v>
-      </c>
       <c r="AB37" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AC37" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD37" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -4057,26 +4171,29 @@
       <c r="W38">
         <v>0</v>
       </c>
-      <c r="X38" t="s">
+      <c r="X38">
+        <v>2</v>
+      </c>
+      <c r="Y38" t="s">
         <v>111</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>30</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>50</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AB38" t="s">
         <v>31</v>
       </c>
-      <c r="AB38" t="s">
-        <v>95</v>
-      </c>
       <c r="AC38" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD38" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -4146,26 +4263,29 @@
       <c r="W39">
         <v>1</v>
       </c>
-      <c r="X39" t="s">
+      <c r="X39">
+        <v>3</v>
+      </c>
+      <c r="Y39" t="s">
         <v>113</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>50</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>30</v>
       </c>
-      <c r="AA39" t="s">
-        <v>34</v>
-      </c>
       <c r="AB39" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AC39" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD39" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -4235,23 +4355,26 @@
       <c r="W40">
         <v>2</v>
       </c>
-      <c r="X40" t="s">
+      <c r="X40">
+        <v>3</v>
+      </c>
+      <c r="Y40" t="s">
         <v>113</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>30</v>
       </c>
-      <c r="Z40" t="s">
-        <v>34</v>
-      </c>
       <c r="AA40" t="s">
         <v>34</v>
       </c>
       <c r="AB40" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC40" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -4318,23 +4441,26 @@
       <c r="W41">
         <v>1</v>
       </c>
-      <c r="X41" t="s">
+      <c r="X41">
+        <v>3</v>
+      </c>
+      <c r="Y41" t="s">
         <v>113</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>30</v>
       </c>
-      <c r="Z41" t="s">
-        <v>34</v>
-      </c>
       <c r="AA41" t="s">
         <v>34</v>
       </c>
       <c r="AB41" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC41" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -4404,20 +4530,23 @@
       <c r="W42">
         <v>0</v>
       </c>
-      <c r="X42" t="s">
+      <c r="X42">
+        <v>2</v>
+      </c>
+      <c r="Y42" t="s">
         <v>111</v>
       </c>
-      <c r="Y42" t="s">
-        <v>34</v>
-      </c>
       <c r="Z42" t="s">
         <v>34</v>
       </c>
       <c r="AA42" t="s">
         <v>34</v>
       </c>
+      <c r="AB42" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -4487,23 +4616,26 @@
       <c r="W43">
         <v>0</v>
       </c>
-      <c r="X43" t="s">
+      <c r="X43">
+        <v>2</v>
+      </c>
+      <c r="Y43" t="s">
         <v>111</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>30</v>
       </c>
-      <c r="Z43" t="s">
-        <v>34</v>
-      </c>
       <c r="AA43" t="s">
         <v>34</v>
       </c>
       <c r="AB43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -4573,26 +4705,29 @@
       <c r="W44">
         <v>0</v>
       </c>
-      <c r="X44" t="s">
+      <c r="X44">
+        <v>2</v>
+      </c>
+      <c r="Y44" t="s">
         <v>111</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>30</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>31</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>50</v>
       </c>
-      <c r="AB44" t="s">
-        <v>95</v>
-      </c>
       <c r="AC44" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD44" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -4662,23 +4797,26 @@
       <c r="W45">
         <v>0</v>
       </c>
-      <c r="X45" t="s">
+      <c r="X45">
+        <v>3</v>
+      </c>
+      <c r="Y45" t="s">
         <v>113</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>42</v>
       </c>
-      <c r="Z45" t="s">
-        <v>34</v>
-      </c>
       <c r="AA45" t="s">
         <v>34</v>
       </c>
       <c r="AB45" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC45" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -4748,26 +4886,29 @@
       <c r="W46">
         <v>1</v>
       </c>
-      <c r="X46" t="s">
+      <c r="X46">
+        <v>3</v>
+      </c>
+      <c r="Y46" t="s">
         <v>113</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>30</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>47</v>
       </c>
-      <c r="AA46" t="s">
-        <v>34</v>
-      </c>
       <c r="AB46" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AC46" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD46" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -4837,23 +4978,26 @@
       <c r="W47">
         <v>2</v>
       </c>
-      <c r="X47" t="s">
+      <c r="X47">
+        <v>1</v>
+      </c>
+      <c r="Y47" t="s">
         <v>114</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>30</v>
       </c>
-      <c r="Z47" t="s">
-        <v>34</v>
-      </c>
       <c r="AA47" t="s">
         <v>34</v>
       </c>
       <c r="AB47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC47" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -4923,20 +5067,23 @@
       <c r="W48">
         <v>2</v>
       </c>
-      <c r="X48" t="s">
+      <c r="X48">
+        <v>2</v>
+      </c>
+      <c r="Y48" t="s">
         <v>111</v>
       </c>
-      <c r="Y48" t="s">
-        <v>34</v>
-      </c>
       <c r="Z48" t="s">
         <v>34</v>
       </c>
       <c r="AA48" t="s">
         <v>34</v>
       </c>
+      <c r="AB48" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -5006,23 +5153,26 @@
       <c r="W49">
         <v>0</v>
       </c>
-      <c r="X49" t="s">
+      <c r="X49">
+        <v>2</v>
+      </c>
+      <c r="Y49" t="s">
         <v>111</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>30</v>
       </c>
-      <c r="Z49" t="s">
-        <v>34</v>
-      </c>
       <c r="AA49" t="s">
         <v>34</v>
       </c>
       <c r="AB49" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC49" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -5092,26 +5242,29 @@
       <c r="W50">
         <v>2</v>
       </c>
-      <c r="X50" t="s">
+      <c r="X50">
+        <v>2</v>
+      </c>
+      <c r="Y50" t="s">
         <v>111</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>79</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>30</v>
       </c>
-      <c r="AA50" t="s">
-        <v>34</v>
-      </c>
       <c r="AB50" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AC50" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD50" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -5181,26 +5334,26 @@
       <c r="W51">
         <v>0</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>114</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>30</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>50</v>
       </c>
-      <c r="AA51" t="s">
-        <v>34</v>
-      </c>
       <c r="AB51" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AC51" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD51" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>80</v>
       </c>
@@ -5270,26 +5423,29 @@
       <c r="W52">
         <v>0</v>
       </c>
-      <c r="X52" t="s">
+      <c r="X52">
+        <v>1</v>
+      </c>
+      <c r="Y52" t="s">
         <v>114</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>30</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AA52" t="s">
         <v>50</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>44</v>
       </c>
-      <c r="AB52" t="s">
-        <v>95</v>
-      </c>
       <c r="AC52" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD52" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -5356,23 +5512,26 @@
       <c r="W53">
         <v>0</v>
       </c>
-      <c r="X53" t="s">
+      <c r="X53">
+        <v>3</v>
+      </c>
+      <c r="Y53" t="s">
         <v>113</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>30</v>
       </c>
-      <c r="Z53" t="s">
-        <v>34</v>
-      </c>
       <c r="AA53" t="s">
         <v>34</v>
       </c>
       <c r="AB53" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC53" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>80</v>
       </c>
@@ -5442,23 +5601,26 @@
       <c r="W54">
         <v>0</v>
       </c>
-      <c r="X54" t="s">
+      <c r="X54">
+        <v>3</v>
+      </c>
+      <c r="Y54" t="s">
         <v>113</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>30</v>
       </c>
-      <c r="Z54" t="s">
-        <v>34</v>
-      </c>
       <c r="AA54" t="s">
         <v>34</v>
       </c>
       <c r="AB54" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC54" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -5528,26 +5690,29 @@
       <c r="W55">
         <v>1</v>
       </c>
-      <c r="X55" t="s">
+      <c r="X55">
+        <v>1</v>
+      </c>
+      <c r="Y55" t="s">
         <v>114</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>30</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AA55" t="s">
         <v>50</v>
       </c>
-      <c r="AA55" t="s">
-        <v>34</v>
-      </c>
       <c r="AB55" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AC55" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD55" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -5617,23 +5782,26 @@
       <c r="W56">
         <v>0</v>
       </c>
-      <c r="X56" t="s">
+      <c r="X56">
+        <v>1</v>
+      </c>
+      <c r="Y56" t="s">
         <v>114</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>44</v>
       </c>
-      <c r="Z56" t="s">
-        <v>34</v>
-      </c>
       <c r="AA56" t="s">
         <v>34</v>
       </c>
       <c r="AB56" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC56" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -5703,23 +5871,26 @@
       <c r="W57">
         <v>1</v>
       </c>
-      <c r="X57" t="s">
+      <c r="X57">
+        <v>3</v>
+      </c>
+      <c r="Y57" t="s">
         <v>113</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>30</v>
       </c>
-      <c r="Z57" t="s">
-        <v>34</v>
-      </c>
       <c r="AA57" t="s">
         <v>34</v>
       </c>
       <c r="AB57" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC57" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -5789,26 +5960,29 @@
       <c r="W58">
         <v>1</v>
       </c>
-      <c r="X58" t="s">
+      <c r="X58">
+        <v>3</v>
+      </c>
+      <c r="Y58" t="s">
         <v>113</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>30</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>44</v>
       </c>
-      <c r="AA58" t="s">
-        <v>34</v>
-      </c>
       <c r="AB58" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AC58" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD58" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>50</v>
       </c>
@@ -5878,26 +6052,29 @@
       <c r="W59">
         <v>0</v>
       </c>
-      <c r="X59" t="s">
+      <c r="X59">
+        <v>2</v>
+      </c>
+      <c r="Y59" t="s">
         <v>111</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>30</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AA59" t="s">
         <v>31</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>42</v>
       </c>
-      <c r="AB59" t="s">
-        <v>95</v>
-      </c>
       <c r="AC59" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD59" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>80</v>
       </c>
@@ -5967,23 +6144,26 @@
       <c r="W60">
         <v>1</v>
       </c>
-      <c r="X60" t="s">
+      <c r="X60">
+        <v>2</v>
+      </c>
+      <c r="Y60" t="s">
         <v>111</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>51</v>
       </c>
-      <c r="Z60" t="s">
-        <v>34</v>
-      </c>
       <c r="AA60" t="s">
         <v>34</v>
       </c>
       <c r="AB60" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC60" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -6050,23 +6230,26 @@
       <c r="W61">
         <v>0</v>
       </c>
-      <c r="X61" t="s">
+      <c r="X61">
+        <v>3</v>
+      </c>
+      <c r="Y61" t="s">
         <v>113</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>50</v>
       </c>
-      <c r="Z61" t="s">
-        <v>34</v>
-      </c>
       <c r="AA61" t="s">
         <v>34</v>
       </c>
       <c r="AB61" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC61" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -6133,23 +6316,26 @@
       <c r="W62">
         <v>0</v>
       </c>
-      <c r="X62" t="s">
+      <c r="X62">
+        <v>3</v>
+      </c>
+      <c r="Y62" t="s">
         <v>113</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>50</v>
       </c>
-      <c r="Z62" t="s">
-        <v>34</v>
-      </c>
       <c r="AA62" t="s">
         <v>34</v>
       </c>
       <c r="AB62" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC62" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -6219,20 +6405,23 @@
       <c r="W63">
         <v>3</v>
       </c>
-      <c r="X63" t="s">
+      <c r="X63">
+        <v>4</v>
+      </c>
+      <c r="Y63" t="s">
         <v>110</v>
       </c>
-      <c r="Y63" t="s">
-        <v>34</v>
-      </c>
       <c r="Z63" t="s">
         <v>34</v>
       </c>
       <c r="AA63" t="s">
         <v>34</v>
       </c>
+      <c r="AB63" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>30</v>
       </c>
@@ -6302,23 +6491,26 @@
       <c r="W64">
         <v>0</v>
       </c>
-      <c r="X64" t="s">
+      <c r="X64">
+        <v>2</v>
+      </c>
+      <c r="Y64" t="s">
         <v>111</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>50</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>44</v>
       </c>
-      <c r="AA64" t="s">
-        <v>34</v>
-      </c>
       <c r="AB64" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC64" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -6385,26 +6577,29 @@
       <c r="W65">
         <v>3</v>
       </c>
-      <c r="X65" t="s">
+      <c r="X65">
+        <v>4</v>
+      </c>
+      <c r="Y65" t="s">
         <v>110</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>44</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="AA65" t="s">
         <v>91</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>42</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AC65" t="s">
         <v>98</v>
       </c>
-      <c r="AC65" t="s">
+      <c r="AD65" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>58</v>
       </c>
@@ -6474,26 +6669,29 @@
       <c r="W66">
         <v>2</v>
       </c>
-      <c r="X66" t="s">
+      <c r="X66">
+        <v>4</v>
+      </c>
+      <c r="Y66" t="s">
         <v>110</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>30</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>42</v>
       </c>
-      <c r="AA66" t="s">
-        <v>34</v>
-      </c>
       <c r="AB66" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AC66" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD66" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>92</v>
       </c>
@@ -6563,23 +6761,26 @@
       <c r="W67">
         <v>1</v>
       </c>
-      <c r="X67" t="s">
+      <c r="X67">
+        <v>2</v>
+      </c>
+      <c r="Y67" t="s">
         <v>111</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>30</v>
       </c>
-      <c r="Z67" t="s">
-        <v>34</v>
-      </c>
       <c r="AA67" t="s">
         <v>34</v>
       </c>
       <c r="AB67" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC67" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -6649,23 +6850,26 @@
       <c r="W68">
         <v>0</v>
       </c>
-      <c r="X68" t="s">
+      <c r="X68">
+        <v>3</v>
+      </c>
+      <c r="Y68" t="s">
         <v>113</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>30</v>
       </c>
-      <c r="Z68" t="s">
-        <v>34</v>
-      </c>
       <c r="AA68" t="s">
         <v>34</v>
       </c>
       <c r="AB68" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC68" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -6732,16 +6936,19 @@
       <c r="W69">
         <v>1</v>
       </c>
-      <c r="X69" t="s">
+      <c r="X69">
+        <v>2</v>
+      </c>
+      <c r="Y69" t="s">
         <v>111</v>
       </c>
-      <c r="Y69" t="s">
-        <v>34</v>
-      </c>
       <c r="Z69" t="s">
         <v>34</v>
       </c>
       <c r="AA69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB69" t="s">
         <v>34</v>
       </c>
     </row>
